--- a/data/trans_orig/P57_AF_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>250826</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>227040</v>
+        <v>227905</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>272490</v>
+        <v>272886</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5085406731996848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4603145922422923</v>
+        <v>0.4620698458675163</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5524641747673849</v>
+        <v>0.5532656762143002</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>271</v>
@@ -765,19 +765,19 @@
         <v>260758</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>238100</v>
+        <v>239360</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>280806</v>
+        <v>281455</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5577838462996025</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5093164951791175</v>
+        <v>0.5120117342328097</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6006688454494467</v>
+        <v>0.6020572677914022</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>527</v>
@@ -786,19 +786,19 @@
         <v>511584</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>482272</v>
+        <v>483066</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>543713</v>
+        <v>542376</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5325026472093806</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5019917480792514</v>
+        <v>0.5028190583338052</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5659451385044996</v>
+        <v>0.564554437527416</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>242401</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>220737</v>
+        <v>220341</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>266187</v>
+        <v>265322</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4914593268003152</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4475358252326151</v>
+        <v>0.4467343237856997</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5396854077577077</v>
+        <v>0.5379301541324836</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>218</v>
@@ -836,19 +836,19 @@
         <v>206731</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>186683</v>
+        <v>186034</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>229389</v>
+        <v>228129</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4422161537003975</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3993311545505533</v>
+        <v>0.3979427322085979</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4906835048208826</v>
+        <v>0.4879882657671903</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>460</v>
@@ -857,19 +857,19 @@
         <v>449132</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>417003</v>
+        <v>418340</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>478444</v>
+        <v>477650</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4674973527906195</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4340548614955006</v>
+        <v>0.4354455624725842</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4980082519207486</v>
+        <v>0.4971809416661948</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>430205</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>400834</v>
+        <v>403924</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>455604</v>
+        <v>455921</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5849234038810655</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5449892786654935</v>
+        <v>0.5491913285081089</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6194567255377025</v>
+        <v>0.6198878982893273</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>338</v>
@@ -982,19 +982,19 @@
         <v>357592</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>331533</v>
+        <v>334110</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>382367</v>
+        <v>383834</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5726068458350504</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.530878661411128</v>
+        <v>0.5350042232562517</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6122773305647374</v>
+        <v>0.6146264719628851</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>753</v>
@@ -1003,19 +1003,19 @@
         <v>787797</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>752228</v>
+        <v>752942</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>827250</v>
+        <v>829676</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5792677070791888</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.553113353410592</v>
+        <v>0.5536389638391624</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6082775671430671</v>
+        <v>0.6100615007179121</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>305284</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>279885</v>
+        <v>279568</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>334655</v>
+        <v>331565</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4150765961189345</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3805432744622976</v>
+        <v>0.3801121017106728</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4550107213345065</v>
+        <v>0.4508086714918911</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>252</v>
@@ -1053,19 +1053,19 @@
         <v>266907</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>242132</v>
+        <v>240665</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>292966</v>
+        <v>290389</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4273931541649496</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3877226694352627</v>
+        <v>0.3853735280371149</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4691213385888721</v>
+        <v>0.4649957767437482</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>540</v>
@@ -1074,19 +1074,19 @@
         <v>572191</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>532738</v>
+        <v>530312</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>607760</v>
+        <v>607046</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4207322929208112</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3917224328569329</v>
+        <v>0.3899384992820879</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.446886646589408</v>
+        <v>0.4463610361608375</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>387137</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>361311</v>
+        <v>361970</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>410432</v>
+        <v>411714</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6071946690507776</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5666883709996918</v>
+        <v>0.5677217751151168</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6437307814607166</v>
+        <v>0.6457419112796059</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>391</v>
@@ -1199,19 +1199,19 @@
         <v>410907</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>382272</v>
+        <v>385111</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>436483</v>
+        <v>435781</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5965866142442439</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5550109666384354</v>
+        <v>0.5591334349386157</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6337193714730205</v>
+        <v>0.6326998582751802</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>764</v>
@@ -1220,19 +1220,19 @@
         <v>798044</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>758535</v>
+        <v>758553</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>832457</v>
+        <v>832892</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6016859696154965</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5718981643521296</v>
+        <v>0.5719115706260687</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6276311121929965</v>
+        <v>0.6279595201984677</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>250446</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>227151</v>
+        <v>225869</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>276272</v>
+        <v>275613</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3928053309492224</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3562692185392837</v>
+        <v>0.3542580887203942</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4333116290003082</v>
+        <v>0.4322782248848832</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -1270,19 +1270,19 @@
         <v>277857</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>252281</v>
+        <v>252983</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>306492</v>
+        <v>303653</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4034133857557561</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3662806285269795</v>
+        <v>0.3673001417248194</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4449890333615645</v>
+        <v>0.4408665650613841</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>505</v>
@@ -1291,19 +1291,19 @@
         <v>528303</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>493890</v>
+        <v>493455</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>567812</v>
+        <v>567794</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3983140303845035</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3723688878070033</v>
+        <v>0.3720404798015324</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4281018356478704</v>
+        <v>0.4280884293739312</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>322955</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>301222</v>
+        <v>299579</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>346706</v>
+        <v>343633</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6220881361811399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5802248201166643</v>
+        <v>0.5770593838404539</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6678373789230585</v>
+        <v>0.6619181624483798</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>306</v>
@@ -1416,19 +1416,19 @@
         <v>317034</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>293885</v>
+        <v>294719</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>336588</v>
+        <v>338612</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6148334361728901</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5699393786227519</v>
+        <v>0.5715578644478044</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6527555513134391</v>
+        <v>0.6566801026746441</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>610</v>
@@ -1437,19 +1437,19 @@
         <v>639989</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>606314</v>
+        <v>602183</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>672683</v>
+        <v>669996</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6184730727907926</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5859301259607752</v>
+        <v>0.5819376368034731</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6500674445250265</v>
+        <v>0.647471204164666</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>196192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>172441</v>
+        <v>175514</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>217925</v>
+        <v>219568</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3779118638188602</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3321626210769415</v>
+        <v>0.3380818375516204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4197751798833361</v>
+        <v>0.4229406161595462</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>196</v>
@@ -1487,19 +1487,19 @@
         <v>198608</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>179054</v>
+        <v>177030</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>221757</v>
+        <v>220923</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3851665638271099</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3472444486865607</v>
+        <v>0.3433198973253556</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.430060621377248</v>
+        <v>0.4284421355521953</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>376</v>
@@ -1508,19 +1508,19 @@
         <v>394800</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>362106</v>
+        <v>364793</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>428475</v>
+        <v>432606</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3815269272092074</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3499325554749735</v>
+        <v>0.3525287958353341</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4140698740392247</v>
+        <v>0.4180623631965268</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>247029</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>228811</v>
+        <v>227738</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>263972</v>
+        <v>265378</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6401942957057269</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5929795101645483</v>
+        <v>0.5902004908220402</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6841022428329075</v>
+        <v>0.6877464823386119</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>262</v>
@@ -1633,19 +1633,19 @@
         <v>267873</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>249062</v>
+        <v>249294</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>285390</v>
+        <v>285391</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6630754403778848</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.616511948061772</v>
+        <v>0.6170860837049544</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7064348184080004</v>
+        <v>0.7064376939931992</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>513</v>
@@ -1654,19 +1654,19 @@
         <v>514902</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>488125</v>
+        <v>488117</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>541100</v>
+        <v>541359</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6518973316413044</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6179958531029257</v>
+        <v>0.617985631284233</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6850649135341781</v>
+        <v>0.6853923514501455</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>138837</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>121894</v>
+        <v>120488</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>157055</v>
+        <v>158128</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3598057042942731</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3158977571670925</v>
+        <v>0.3122535176613879</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4070204898354519</v>
+        <v>0.4097995091779599</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>134</v>
@@ -1704,19 +1704,19 @@
         <v>136113</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>118596</v>
+        <v>118595</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>154924</v>
+        <v>154692</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3369245596221152</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2935651815919997</v>
+        <v>0.2935623060068007</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3834880519382281</v>
+        <v>0.3829139162950456</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>274</v>
@@ -1725,19 +1725,19 @@
         <v>274950</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>248752</v>
+        <v>248493</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>301727</v>
+        <v>301735</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3481026683586957</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3149350864658217</v>
+        <v>0.3146076485498545</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3820041468970741</v>
+        <v>0.3820143687157669</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>196241</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>180595</v>
+        <v>180172</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>210570</v>
+        <v>210951</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6747587451993065</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6209598307322483</v>
+        <v>0.6195056917758183</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7240264905988351</v>
+        <v>0.72533680724806</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>239</v>
@@ -1850,19 +1850,19 @@
         <v>221356</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>203852</v>
+        <v>204035</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>236412</v>
+        <v>238463</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6454768576415097</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5944365137014661</v>
+        <v>0.5949680695721471</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6893817177116081</v>
+        <v>0.6953605658647217</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>441</v>
@@ -1871,19 +1871,19 @@
         <v>417597</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>394292</v>
+        <v>392784</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>439826</v>
+        <v>438571</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6589141641227464</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6221410059751782</v>
+        <v>0.6197618250802989</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6939884497515142</v>
+        <v>0.6920079320538384</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>94591</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>80262</v>
+        <v>79881</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>110237</v>
+        <v>110660</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3252412548006935</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2759735094011651</v>
+        <v>0.2746631927519399</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3790401692677517</v>
+        <v>0.3804943082241818</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>132</v>
@@ -1921,19 +1921,19 @@
         <v>121578</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>106522</v>
+        <v>104471</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>139082</v>
+        <v>138899</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3545231423584903</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.310618282288392</v>
+        <v>0.3046394341352783</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4055634862985339</v>
+        <v>0.405031930427853</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>232</v>
@@ -1942,19 +1942,19 @@
         <v>216169</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>193940</v>
+        <v>195195</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>239474</v>
+        <v>240982</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3410858358772536</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3060115502484858</v>
+        <v>0.3079920679461616</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3778589940248218</v>
+        <v>0.3802381749197006</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>151666</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>137743</v>
+        <v>138208</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>164737</v>
+        <v>163552</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7226222467337082</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6562842298586945</v>
+        <v>0.6585017708709295</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7848983875065979</v>
+        <v>0.7792515387643262</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>202</v>
@@ -2067,19 +2067,19 @@
         <v>232859</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>212538</v>
+        <v>216301</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>248062</v>
+        <v>251648</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6973752273316062</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6365154915471394</v>
+        <v>0.6477852243906262</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7429042767615436</v>
+        <v>0.7536455022242811</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>362</v>
@@ -2088,19 +2088,19 @@
         <v>384525</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>362889</v>
+        <v>362326</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>407766</v>
+        <v>405602</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7071196334604883</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.667331005541723</v>
+        <v>0.6662971391724685</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7498577144878564</v>
+        <v>0.7458784064011861</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>58217</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>45146</v>
+        <v>46331</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>72140</v>
+        <v>71675</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2773777532662918</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2151016124934021</v>
+        <v>0.2207484612356737</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3437157701413056</v>
+        <v>0.3414982291290704</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>88</v>
@@ -2138,19 +2138,19 @@
         <v>101049</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>85846</v>
+        <v>82260</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>121370</v>
+        <v>117607</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3026247726683938</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2570957232384564</v>
+        <v>0.2463544977757189</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3634845084528602</v>
+        <v>0.3522147756093738</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>148</v>
@@ -2159,19 +2159,19 @@
         <v>159266</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>136025</v>
+        <v>138189</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>180902</v>
+        <v>181465</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2928803665395116</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2501422855121432</v>
+        <v>0.2541215935988138</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3326689944582769</v>
+        <v>0.3337028608275313</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>1986059</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1929173</v>
+        <v>1927939</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2041506</v>
+        <v>2043384</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6069814500043046</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5895959911590974</v>
+        <v>0.5892186302267477</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6239272982458312</v>
+        <v>0.6245011751578173</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2009</v>
@@ -2284,19 +2284,19 @@
         <v>2068380</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2015106</v>
+        <v>2015592</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2128276</v>
+        <v>2128545</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6124500715253164</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5966757586258876</v>
+        <v>0.596819636909563</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.63018528379203</v>
+        <v>0.6302650562343636</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3970</v>
@@ -2305,19 +2305,19 @@
         <v>4054439</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3969270</v>
+        <v>3972379</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4133505</v>
+        <v>4133309</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6097590196875528</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5969502185631814</v>
+        <v>0.5974177738967191</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.621649986495961</v>
+        <v>0.6216204807606376</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1285967</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1230520</v>
+        <v>1228642</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1342853</v>
+        <v>1344087</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3930185499956954</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3760727017541687</v>
+        <v>0.3754988248421827</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4104040088409021</v>
+        <v>0.4107813697732522</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1286</v>
@@ -2355,19 +2355,19 @@
         <v>1308842</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1248946</v>
+        <v>1248677</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1362116</v>
+        <v>1361630</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3875499284746836</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3698147162079696</v>
+        <v>0.3697349437656364</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4033242413741124</v>
+        <v>0.4031803630904368</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2535</v>
@@ -2376,19 +2376,19 @@
         <v>2594809</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2515743</v>
+        <v>2515939</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2679978</v>
+        <v>2676869</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3902409803124472</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3783500135040389</v>
+        <v>0.3783795192393626</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4030497814368185</v>
+        <v>0.402582226103281</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>250879</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>228534</v>
+        <v>230306</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>271561</v>
+        <v>271503</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5560938061059911</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5065638510763774</v>
+        <v>0.5104907084557326</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6019358492230195</v>
+        <v>0.6018065119332296</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>238</v>
@@ -2744,19 +2744,19 @@
         <v>244244</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>225327</v>
+        <v>221827</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>265074</v>
+        <v>263731</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5689919208292588</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.524922651744717</v>
+        <v>0.5167700888223919</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6175183903764213</v>
+        <v>0.6143905154502614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>484</v>
@@ -2765,19 +2765,19 @@
         <v>495123</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>462866</v>
+        <v>463103</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>524341</v>
+        <v>521734</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5623825254469751</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5257437315622729</v>
+        <v>0.5260126215066518</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5955693157348014</v>
+        <v>0.5926086697519299</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>200267</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>179585</v>
+        <v>179643</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>222612</v>
+        <v>220840</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4439061938940089</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3980641507769806</v>
+        <v>0.3981934880667704</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4934361489236228</v>
+        <v>0.4895092915442674</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>182</v>
@@ -2815,19 +2815,19 @@
         <v>185013</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>164183</v>
+        <v>165526</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>203930</v>
+        <v>207430</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4310080791707413</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3824816096235789</v>
+        <v>0.3856094845497389</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4750773482552831</v>
+        <v>0.4832299111776081</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>379</v>
@@ -2836,19 +2836,19 @@
         <v>385280</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>356062</v>
+        <v>358669</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>417537</v>
+        <v>417300</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.437617474553025</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4044306842651985</v>
+        <v>0.4073913302480703</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4742562684377271</v>
+        <v>0.4739873784933481</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>393450</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>365822</v>
+        <v>368574</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>418793</v>
+        <v>419639</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5760466060301133</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5355976097668218</v>
+        <v>0.5396261661676509</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6131510300169288</v>
+        <v>0.6143898506715532</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>371</v>
@@ -2961,19 +2961,19 @@
         <v>399068</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>375293</v>
+        <v>374171</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>422102</v>
+        <v>422448</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6562504443964451</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6171533132113904</v>
+        <v>0.6153092112583228</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6941293144517275</v>
+        <v>0.6946984751348896</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>752</v>
@@ -2982,19 +2982,19 @@
         <v>792517</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>758919</v>
+        <v>755847</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>830987</v>
+        <v>826618</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6138217142293227</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5877993326824561</v>
+        <v>0.5854198150859773</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6436173358868381</v>
+        <v>0.640232905679304</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>289567</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>264224</v>
+        <v>263378</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>317195</v>
+        <v>314443</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4239533939698868</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3868489699830712</v>
+        <v>0.3856101493284471</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4644023902331781</v>
+        <v>0.4603738338323494</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>198</v>
@@ -3032,19 +3032,19 @@
         <v>209035</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>186001</v>
+        <v>185655</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>232810</v>
+        <v>233932</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3437495556035549</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.305870685548272</v>
+        <v>0.3053015248651104</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3828466867886094</v>
+        <v>0.3846907887416771</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>480</v>
@@ -3053,19 +3053,19 @@
         <v>498603</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>460133</v>
+        <v>464502</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>532201</v>
+        <v>535273</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3861782857706773</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3563826641131619</v>
+        <v>0.3597670943206959</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4122006673175438</v>
+        <v>0.4145801849140227</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>444258</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>417444</v>
+        <v>415195</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>468509</v>
+        <v>468375</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6526745358465768</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6132817422311744</v>
+        <v>0.6099772790731973</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6883029419912619</v>
+        <v>0.6881055725836084</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>435</v>
@@ -3178,19 +3178,19 @@
         <v>461453</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>434687</v>
+        <v>432969</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>485155</v>
+        <v>485454</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6531194185522806</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6152366800832096</v>
+        <v>0.6128043050312673</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6866656331638125</v>
+        <v>0.6870889150076307</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>862</v>
@@ -3199,19 +3199,19 @@
         <v>905711</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>868101</v>
+        <v>869771</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>940970</v>
+        <v>942776</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6529011246082205</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6257888436782058</v>
+        <v>0.6269927622870958</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6783186526085508</v>
+        <v>0.6796199312452661</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>236415</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>212164</v>
+        <v>212298</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>263229</v>
+        <v>265478</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3473254641534232</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3116970580087382</v>
+        <v>0.3118944274163915</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3867182577688255</v>
+        <v>0.3900227209268027</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>228</v>
@@ -3249,19 +3249,19 @@
         <v>245084</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>221382</v>
+        <v>221083</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>271850</v>
+        <v>273568</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3468805814477194</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3133343668361875</v>
+        <v>0.3129110849923692</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3847633199167902</v>
+        <v>0.3871956949687326</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>451</v>
@@ -3270,19 +3270,19 @@
         <v>481499</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>446240</v>
+        <v>444434</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>519109</v>
+        <v>517439</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3470988753917795</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3216813473914492</v>
+        <v>0.3203800687547339</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3742111563217943</v>
+        <v>0.3730072377129042</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>388744</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>359959</v>
+        <v>363923</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>413072</v>
+        <v>413192</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6366561222110739</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5895157100776555</v>
+        <v>0.5960074258392667</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6764991710062389</v>
+        <v>0.6766962387874931</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>387</v>
@@ -3395,19 +3395,19 @@
         <v>443903</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>418002</v>
+        <v>417261</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>465964</v>
+        <v>465976</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7261136708563466</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6837465217498891</v>
+        <v>0.682534585218306</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7622000917702476</v>
+        <v>0.762220152587708</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>732</v>
@@ -3416,19 +3416,19 @@
         <v>832647</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>797524</v>
+        <v>796277</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>865613</v>
+        <v>868839</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6814119380438483</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6526690448315304</v>
+        <v>0.6516483228505966</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7083903871386049</v>
+        <v>0.7110310088658469</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>221858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>197530</v>
+        <v>197410</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>250643</v>
+        <v>246679</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3633438777889261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3235008289937611</v>
+        <v>0.3233037612125069</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4104842899223445</v>
+        <v>0.4039925741607334</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>149</v>
@@ -3466,19 +3466,19 @@
         <v>167438</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>145377</v>
+        <v>145365</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>193339</v>
+        <v>194080</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2738863291436534</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2377999082297521</v>
+        <v>0.2377798474122917</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3162534782501109</v>
+        <v>0.317465414781694</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>348</v>
@@ -3487,19 +3487,19 @@
         <v>389296</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>356330</v>
+        <v>353104</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>424419</v>
+        <v>425666</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3185880619561517</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2916096128613952</v>
+        <v>0.2889689911341524</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3473309551684697</v>
+        <v>0.3483516771494032</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>252726</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>230223</v>
+        <v>230954</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>273808</v>
+        <v>274446</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5913119338738431</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5386618114474591</v>
+        <v>0.5403716302122414</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6406401271950382</v>
+        <v>0.6421322919905966</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>279</v>
@@ -3612,19 +3612,19 @@
         <v>306777</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>283791</v>
+        <v>285721</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>324552</v>
+        <v>327668</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6898162642665975</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6381295120701274</v>
+        <v>0.6424704904131814</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7297846656468078</v>
+        <v>0.7367911217940381</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>508</v>
@@ -3633,19 +3633,19 @@
         <v>559503</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>529602</v>
+        <v>529247</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>588789</v>
+        <v>592287</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6415425555547142</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6072578211593966</v>
+        <v>0.6068509729325201</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6751234011235121</v>
+        <v>0.6791338156746916</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>174672</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>153590</v>
+        <v>152952</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197175</v>
+        <v>196444</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4086880661261569</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3593598728049618</v>
+        <v>0.3578677080094033</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4613381885525409</v>
+        <v>0.4596283697877585</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>124</v>
@@ -3683,19 +3683,19 @@
         <v>137946</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>120171</v>
+        <v>117055</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160932</v>
+        <v>159002</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3101837357334026</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2702153343531923</v>
+        <v>0.2632088782059619</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3618704879298725</v>
+        <v>0.3575295095868182</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>286</v>
@@ -3704,19 +3704,19 @@
         <v>312618</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>283332</v>
+        <v>279834</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>342519</v>
+        <v>342874</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3584574444452858</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.324876598876488</v>
+        <v>0.3208661843253082</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3927421788406034</v>
+        <v>0.3931490270674796</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>204027</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>186179</v>
+        <v>186926</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>219564</v>
+        <v>220133</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6687224426332842</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6102217464432416</v>
+        <v>0.6126721046495949</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7196471313439017</v>
+        <v>0.7215094639677928</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>241</v>
@@ -3829,19 +3829,19 @@
         <v>245382</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>227332</v>
+        <v>228168</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>261883</v>
+        <v>262220</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7041688899631257</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6523713718541528</v>
+        <v>0.6547708154547509</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7515217464119798</v>
+        <v>0.7524904498773001</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>421</v>
@@ -3850,19 +3850,19 @@
         <v>449410</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>424436</v>
+        <v>423303</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>472126</v>
+        <v>472296</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6876217548003656</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6494105090798746</v>
+        <v>0.6476775789170157</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7223791230651716</v>
+        <v>0.7226384022425286</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>101073</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>85536</v>
+        <v>84967</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>118921</v>
+        <v>118174</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3312775573667159</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.280352868656098</v>
+        <v>0.2784905360322072</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3897782535567584</v>
+        <v>0.387327895350405</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>99</v>
@@ -3900,19 +3900,19 @@
         <v>103088</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>86587</v>
+        <v>86250</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>121138</v>
+        <v>120302</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2958311100368743</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2484782535880202</v>
+        <v>0.2475095501226999</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3476286281458471</v>
+        <v>0.345229184545249</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>196</v>
@@ -3921,19 +3921,19 @@
         <v>204161</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>181445</v>
+        <v>181275</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>229135</v>
+        <v>230268</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3123782451996345</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2776208769348285</v>
+        <v>0.2773615977574714</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3505894909201255</v>
+        <v>0.3523224210829842</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>175403</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>157756</v>
+        <v>158629</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>190549</v>
+        <v>189567</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7077941220917122</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6365817495901303</v>
+        <v>0.6401062721564991</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7689092538605976</v>
+        <v>0.7649459078548257</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>234</v>
@@ -4046,19 +4046,19 @@
         <v>259713</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>238595</v>
+        <v>240363</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>276943</v>
+        <v>276505</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6771201442992353</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6220606462745785</v>
+        <v>0.626669487974306</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7220399632815555</v>
+        <v>0.7208991143970188</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>389</v>
@@ -4067,19 +4067,19 @@
         <v>435117</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>409550</v>
+        <v>410999</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>460003</v>
+        <v>459089</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6891598228973683</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6486650053948171</v>
+        <v>0.6509609422080551</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7285748968784569</v>
+        <v>0.7271277429994866</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>72414</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>57268</v>
+        <v>58250</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>90061</v>
+        <v>89188</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2922058779082878</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2310907461394026</v>
+        <v>0.2350540921451741</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3634182504098697</v>
+        <v>0.3598937278435006</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>111</v>
@@ -4117,19 +4117,19 @@
         <v>123843</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>106613</v>
+        <v>107051</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>144961</v>
+        <v>143193</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3228798557007648</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2779600367184443</v>
+        <v>0.2791008856029809</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3779393537254215</v>
+        <v>0.373330512025694</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>176</v>
@@ -4138,19 +4138,19 @@
         <v>196256</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>171370</v>
+        <v>172284</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>221823</v>
+        <v>220374</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3108401771026317</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2714251031215429</v>
+        <v>0.2728722570005134</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3513349946051827</v>
+        <v>0.3490390577919447</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>2109487</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2053656</v>
+        <v>2049916</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2165171</v>
+        <v>2170096</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6193892369902723</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6029960460006787</v>
+        <v>0.6018979610086747</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6357393794090347</v>
+        <v>0.6371852831719508</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2185</v>
@@ -4263,19 +4263,19 @@
         <v>2360541</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2305234</v>
+        <v>2304800</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2423483</v>
+        <v>2416648</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6683320465594166</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6526731003065218</v>
+        <v>0.6525502219221899</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6861527292827271</v>
+        <v>0.6842175634522175</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4148</v>
@@ -4284,19 +4284,19 @@
         <v>4470028</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4392499</v>
+        <v>4384673</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4549083</v>
+        <v>4551145</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6443059113127384</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6331310428957156</v>
+        <v>0.6320030170039668</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6557008300055926</v>
+        <v>0.6559980911274189</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>1296266</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1240582</v>
+        <v>1235657</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1352097</v>
+        <v>1355837</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3806107630097277</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3642606205909653</v>
+        <v>0.3628147168280493</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3970039539993213</v>
+        <v>0.3981020389913253</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1091</v>
@@ -4334,19 +4334,19 @@
         <v>1171447</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1108505</v>
+        <v>1115340</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1226754</v>
+        <v>1227188</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3316679534405834</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3138472707172731</v>
+        <v>0.3157824365477825</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3473268996934783</v>
+        <v>0.3474497780778104</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2316</v>
@@ -4355,19 +4355,19 @@
         <v>2467713</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2388658</v>
+        <v>2386596</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2545242</v>
+        <v>2553068</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3556940886872616</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3442991699944071</v>
+        <v>0.3440019088725811</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3668689571042842</v>
+        <v>0.3679969829960331</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>291929</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>271614</v>
+        <v>272182</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>310499</v>
+        <v>308749</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6959583500128187</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6475271127119259</v>
+        <v>0.6488814718536767</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7402308404158315</v>
+        <v>0.7360583445994606</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>277</v>
@@ -4723,19 +4723,19 @@
         <v>271948</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>254581</v>
+        <v>254308</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>290035</v>
+        <v>288116</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6871630264036767</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.64327886752615</v>
+        <v>0.642590054695523</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.732864543658642</v>
+        <v>0.7280159758196413</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>551</v>
@@ -4744,19 +4744,19 @@
         <v>563877</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>535543</v>
+        <v>537948</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>588876</v>
+        <v>590906</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6916885800682149</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6569320430262586</v>
+        <v>0.6598826020398736</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7223537702598724</v>
+        <v>0.724844694822693</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>127534</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108964</v>
+        <v>110714</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147849</v>
+        <v>147281</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3040416499871813</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2597691595841684</v>
+        <v>0.2639416554005394</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.352472887288074</v>
+        <v>0.3511185281463235</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>127</v>
@@ -4794,19 +4794,19 @@
         <v>123807</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>105720</v>
+        <v>107639</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141174</v>
+        <v>141447</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3128369735963233</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2671354563413579</v>
+        <v>0.2719840241803588</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3567211324738497</v>
+        <v>0.357409945304477</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>246</v>
@@ -4815,19 +4815,19 @@
         <v>251341</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>226342</v>
+        <v>224312</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>279675</v>
+        <v>277270</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3083114199317851</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2776462297401279</v>
+        <v>0.275155305177307</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3430679569737413</v>
+        <v>0.3401173979601266</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>442092</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>417557</v>
+        <v>422050</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>459652</v>
+        <v>463964</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7530065771521363</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7112178424650513</v>
+        <v>0.7188705153771828</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7829166320604416</v>
+        <v>0.7902612027844951</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>426</v>
@@ -4940,19 +4940,19 @@
         <v>412443</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>390589</v>
+        <v>390353</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>432819</v>
+        <v>433112</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.736313156335232</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6972994362675442</v>
+        <v>0.6968779580849573</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7726888748637356</v>
+        <v>0.7732118623234921</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>847</v>
@@ -4961,19 +4961,19 @@
         <v>854535</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>824779</v>
+        <v>826201</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>881191</v>
+        <v>884932</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7448559795196501</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7189193924143157</v>
+        <v>0.7201593269365667</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7680914345667277</v>
+        <v>0.7713516909211776</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>145010</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>127450</v>
+        <v>123138</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>169545</v>
+        <v>165052</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2469934228478638</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2170833679395585</v>
+        <v>0.2097387972155049</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2887821575349487</v>
+        <v>0.2811294846228172</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>150</v>
@@ -5011,19 +5011,19 @@
         <v>147703</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>127327</v>
+        <v>127034</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>169557</v>
+        <v>169793</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.263686843664768</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2273111251362644</v>
+        <v>0.2267881376765079</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3027005637324558</v>
+        <v>0.3031220419150425</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>293</v>
@@ -5032,19 +5032,19 @@
         <v>292713</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>266057</v>
+        <v>262316</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>322469</v>
+        <v>321047</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2551440204803498</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2319085654332724</v>
+        <v>0.2286483090788224</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2810806075856843</v>
+        <v>0.2798406730634334</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>490105</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>466275</v>
+        <v>465753</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>512575</v>
+        <v>512946</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.733435965871541</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6977747034573903</v>
+        <v>0.6969943786494451</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7670628047075834</v>
+        <v>0.7676185160076856</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>477</v>
@@ -5157,19 +5157,19 @@
         <v>475047</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>449961</v>
+        <v>452249</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>497298</v>
+        <v>495723</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7273833905129564</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6889731226107156</v>
+        <v>0.6924755134971092</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7614542099241272</v>
+        <v>0.7590427799651078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>945</v>
@@ -5178,19 +5178,19 @@
         <v>965152</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>934313</v>
+        <v>932706</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>997067</v>
+        <v>996274</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7304443563002361</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7071045515981312</v>
+        <v>0.7058883516420035</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7545978191677482</v>
+        <v>0.7539977571252396</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>178126</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>155656</v>
+        <v>155285</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>201956</v>
+        <v>202478</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2665640341284589</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2329371952924167</v>
+        <v>0.2323814839923144</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3022252965426097</v>
+        <v>0.3030056213505548</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>180</v>
@@ -5228,19 +5228,19 @@
         <v>178043</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155792</v>
+        <v>157367</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>203129</v>
+        <v>200841</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2726166094870436</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2385457900758726</v>
+        <v>0.2409572200348922</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3110268773892843</v>
+        <v>0.3075244865028908</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>349</v>
@@ -5249,19 +5249,19 @@
         <v>356170</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>324255</v>
+        <v>325048</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>387009</v>
+        <v>388616</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2695556436997639</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2454021808322517</v>
+        <v>0.2460022428747602</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2928954484018688</v>
+        <v>0.2941116483579964</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>488559</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>466090</v>
+        <v>464465</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>511241</v>
+        <v>509456</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7607645802399701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.725776041713904</v>
+        <v>0.7232458928977357</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7960838431499121</v>
+        <v>0.7933037245775478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>462</v>
@@ -5374,19 +5374,19 @@
         <v>499955</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>476921</v>
+        <v>477522</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>521026</v>
+        <v>520838</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7702547732499389</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7347673211402302</v>
+        <v>0.7356932878750478</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8027184718781816</v>
+        <v>0.8024286539621771</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>901</v>
@@ -5395,19 +5395,19 @@
         <v>988514</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>957460</v>
+        <v>956024</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1021870</v>
+        <v>1017869</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7655349663539404</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7414861214939602</v>
+        <v>0.7403737218621382</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7913670653336216</v>
+        <v>0.7882681195852295</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>153636</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>130954</v>
+        <v>132739</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>176105</v>
+        <v>177730</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2392354197600299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2039161568500878</v>
+        <v>0.2066962754224521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2742239582860959</v>
+        <v>0.2767541071022643</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>140</v>
@@ -5445,19 +5445,19 @@
         <v>149122</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>128051</v>
+        <v>128239</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>172156</v>
+        <v>171555</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2297452267500611</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1972815281218187</v>
+        <v>0.1975713460378229</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2652326788597705</v>
+        <v>0.2643067121249522</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>280</v>
@@ -5466,19 +5466,19 @@
         <v>302758</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>269402</v>
+        <v>273403</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>333812</v>
+        <v>335248</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2344650336460596</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2086329346663783</v>
+        <v>0.2117318804147704</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2585138785060396</v>
+        <v>0.2596262781378617</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>346888</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>327234</v>
+        <v>326873</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>366928</v>
+        <v>367600</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.734129913759576</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6925358236661111</v>
+        <v>0.6917720375672085</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7765403610780589</v>
+        <v>0.7779628443497694</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>340</v>
@@ -5591,19 +5591,19 @@
         <v>386321</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>366552</v>
+        <v>365570</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>405025</v>
+        <v>404092</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7827833155955771</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7427268160566713</v>
+        <v>0.7407375364631076</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8206836505522977</v>
+        <v>0.8187925600542331</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>648</v>
@@ -5612,19 +5612,19 @@
         <v>733209</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>703975</v>
+        <v>702579</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>761283</v>
+        <v>758565</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.758985584276554</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7287239860798996</v>
+        <v>0.727279229585621</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7880464202467043</v>
+        <v>0.7852333607610981</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>125628</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>105588</v>
+        <v>104916</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>145282</v>
+        <v>145643</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.265870086240424</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2234596389219411</v>
+        <v>0.2220371556502307</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3074641763338888</v>
+        <v>0.3082279624327915</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>90</v>
@@ -5662,19 +5662,19 @@
         <v>107201</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>88497</v>
+        <v>89430</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>126970</v>
+        <v>127952</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2172166844044229</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1793163494477022</v>
+        <v>0.1812074399457669</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2572731839433287</v>
+        <v>0.2592624635368924</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>201</v>
@@ -5683,19 +5683,19 @@
         <v>232829</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>204755</v>
+        <v>207473</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>262063</v>
+        <v>263459</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2410144157234459</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2119535797532955</v>
+        <v>0.2147666392389019</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2712760139201004</v>
+        <v>0.2727207704143788</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>239114</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>219671</v>
+        <v>221679</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>254697</v>
+        <v>256412</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7172324909850962</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6589120006127793</v>
+        <v>0.6649373533757104</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7639746608107855</v>
+        <v>0.7691190029807087</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>284</v>
@@ -5808,19 +5808,19 @@
         <v>303710</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>287399</v>
+        <v>285590</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>319323</v>
+        <v>318523</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.806048453871005</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7627593308941389</v>
+        <v>0.7579585167582136</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8474854249495842</v>
+        <v>0.8453629210016316</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>519</v>
@@ -5829,19 +5829,19 @@
         <v>542824</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>517825</v>
+        <v>519917</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>567409</v>
+        <v>564545</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7643546034377611</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7291527341961945</v>
+        <v>0.7320991777425777</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7989734316092203</v>
+        <v>0.7949401976204801</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>94270</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>78687</v>
+        <v>76972</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>113713</v>
+        <v>111705</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2827675090149038</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2360253391892148</v>
+        <v>0.2308809970192913</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3410879993872207</v>
+        <v>0.3350626466242897</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -5879,19 +5879,19 @@
         <v>73079</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>57466</v>
+        <v>58266</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>89390</v>
+        <v>91199</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1939515461289951</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1525145750504157</v>
+        <v>0.1546370789983685</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2372406691058611</v>
+        <v>0.2420414832417864</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>158</v>
@@ -5900,19 +5900,19 @@
         <v>167349</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>142764</v>
+        <v>145628</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>192348</v>
+        <v>190256</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2356453965622389</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2010265683907796</v>
+        <v>0.20505980237952</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2708472658038055</v>
+        <v>0.2679008222574223</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>199767</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>186243</v>
+        <v>187291</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>210673</v>
+        <v>212015</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7799354840111925</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.727135370792733</v>
+        <v>0.7312244521961705</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8225151572362263</v>
+        <v>0.8277529842726161</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>251</v>
@@ -6025,19 +6025,19 @@
         <v>333542</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>314914</v>
+        <v>314267</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>348338</v>
+        <v>349729</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8390520474577284</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7921925870858935</v>
+        <v>0.7905652781256988</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8762736701699153</v>
+        <v>0.8797720718302201</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>485</v>
@@ -6046,19 +6046,19 @@
         <v>533309</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>509287</v>
+        <v>510889</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>552854</v>
+        <v>552711</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8158873651398074</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7791368061536693</v>
+        <v>0.7815877364642149</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8457882763039787</v>
+        <v>0.8455703915868824</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>56366</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>45460</v>
+        <v>44118</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>69890</v>
+        <v>68842</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2200645159888075</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1774848427637738</v>
+        <v>0.1722470157273842</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2728646292072669</v>
+        <v>0.2687755478038295</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>48</v>
@@ -6096,19 +6096,19 @@
         <v>63980</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>49184</v>
+        <v>47793</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>82608</v>
+        <v>83255</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1609479525422716</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1237263298300846</v>
+        <v>0.1202279281697799</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2078074129141064</v>
+        <v>0.2094347218743012</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>115</v>
@@ -6117,19 +6117,19 @@
         <v>120346</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>100801</v>
+        <v>100944</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>144368</v>
+        <v>142766</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1841126348601926</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1542117236960213</v>
+        <v>0.1544296084131176</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2208631938463306</v>
+        <v>0.2184122635357852</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>2498453</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2450664</v>
+        <v>2442142</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2553181</v>
+        <v>2551423</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7394009288049429</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7252579731361181</v>
+        <v>0.722735961558566</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7555973161638432</v>
+        <v>0.7550769432122362</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2517</v>
@@ -6242,19 +6242,19 @@
         <v>2682965</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2628031</v>
+        <v>2634274</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2732095</v>
+        <v>2734394</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7609303694764847</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7453501026931323</v>
+        <v>0.7471208737010667</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7748644464845192</v>
+        <v>0.7755165052232785</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4896</v>
@@ -6263,19 +6263,19 @@
         <v>5181419</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5104294</v>
+        <v>5103655</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5255444</v>
+        <v>5261931</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7503946286360461</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7392249884458382</v>
+        <v>0.7391325362013541</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.761115136322835</v>
+        <v>0.7620546231573023</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>880571</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>825843</v>
+        <v>827601</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>928360</v>
+        <v>936882</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2605990711950571</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2444026838361568</v>
+        <v>0.2449230567877639</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2747420268638819</v>
+        <v>0.2772640384414341</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>804</v>
@@ -6313,19 +6313,19 @@
         <v>842936</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>793806</v>
+        <v>791507</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>897870</v>
+        <v>891627</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2390696305235153</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2251355535154808</v>
+        <v>0.2244834947767214</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2546498973068676</v>
+        <v>0.2528791262989333</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1642</v>
@@ -6334,19 +6334,19 @@
         <v>1723507</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1649482</v>
+        <v>1642995</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1800632</v>
+        <v>1801271</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2496053713639539</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2388848636771651</v>
+        <v>0.2379453768426977</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2607750115541619</v>
+        <v>0.2608674637986459</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>155363</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>125072</v>
+        <v>126864</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>186271</v>
+        <v>186803</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3827160842785271</v>
+        <v>0.3827160842785272</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3080966821531766</v>
+        <v>0.3125117026285515</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4588525876530976</v>
+        <v>0.4601649267596841</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>97</v>
@@ -6702,19 +6702,19 @@
         <v>166502</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>141481</v>
+        <v>142044</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>191734</v>
+        <v>194558</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4593002812986045</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.390279272394988</v>
+        <v>0.3918330091516261</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.528904846133269</v>
+        <v>0.5366931587332828</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>163</v>
@@ -6723,19 +6723,19 @@
         <v>321865</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>282169</v>
+        <v>280167</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>366788</v>
+        <v>361545</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4188437454015953</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3671867999608266</v>
+        <v>0.3645824596072139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4773023479524752</v>
+        <v>0.4704796983943374</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>250586</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>219678</v>
+        <v>219146</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>280877</v>
+        <v>279085</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.617283915721473</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5411474123469027</v>
+        <v>0.539835073240316</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6919033178468235</v>
+        <v>0.6874882973714487</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>110</v>
@@ -6773,19 +6773,19 @@
         <v>196010</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>170778</v>
+        <v>167954</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>221031</v>
+        <v>220468</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5406997187013955</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4710951538667308</v>
+        <v>0.4633068412667172</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6097207276050121</v>
+        <v>0.6081669908483739</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>215</v>
@@ -6794,19 +6794,19 @@
         <v>446596</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>401673</v>
+        <v>406916</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>486292</v>
+        <v>488294</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5811562545984048</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5226976520475246</v>
+        <v>0.5295203016056625</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6328132000391733</v>
+        <v>0.6354175403927862</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>260916</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>231453</v>
+        <v>231085</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>288066</v>
+        <v>286025</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.548655349712158</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4866999493381201</v>
+        <v>0.4859250561925232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6057464965692113</v>
+        <v>0.6014548324309243</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>233</v>
@@ -6919,19 +6919,19 @@
         <v>246219</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>222544</v>
+        <v>222624</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>267382</v>
+        <v>270085</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4933100638521435</v>
+        <v>0.4933100638521436</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4458744462139844</v>
+        <v>0.4460358835963267</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5357105898614924</v>
+        <v>0.5411255174719505</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>407</v>
@@ -6940,19 +6940,19 @@
         <v>507136</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>467387</v>
+        <v>468359</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>540003</v>
+        <v>539775</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.5203137720524793</v>
+        <v>0.5203137720524794</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4795321405245609</v>
+        <v>0.4805295451332293</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5540349820455778</v>
+        <v>0.5538011860737114</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>214640</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>187490</v>
+        <v>189531</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>244103</v>
+        <v>244471</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4513446502878419</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3942535034307887</v>
+        <v>0.3985451675690758</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5133000506618799</v>
+        <v>0.5140749438074769</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>225</v>
@@ -6990,19 +6990,19 @@
         <v>252898</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>231735</v>
+        <v>229032</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>276573</v>
+        <v>276493</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5066899361478565</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4642894101385076</v>
+        <v>0.4588744825280497</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5541255537860157</v>
+        <v>0.5539641164036735</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>352</v>
@@ -7011,19 +7011,19 @@
         <v>467537</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>434670</v>
+        <v>434898</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>507286</v>
+        <v>506314</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4796862279475207</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4459650179544223</v>
+        <v>0.4461988139262887</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5204678594754392</v>
+        <v>0.5194704548667707</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>354899</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>326650</v>
+        <v>330677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>379920</v>
+        <v>382991</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5776831017484302</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5317009271088105</v>
+        <v>0.538256512466165</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.618411344319392</v>
+        <v>0.6234100591466434</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>482</v>
@@ -7136,19 +7136,19 @@
         <v>345932</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>324470</v>
+        <v>323326</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>366707</v>
+        <v>365480</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5572785804861858</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5227044605731721</v>
+        <v>0.5208622950186832</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5907457700089781</v>
+        <v>0.5887693121782749</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>802</v>
@@ -7157,19 +7157,19 @@
         <v>700831</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>665327</v>
+        <v>665952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>734970</v>
+        <v>736567</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5674279499800233</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5386823540021095</v>
+        <v>0.5391886442684676</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5950689926122829</v>
+        <v>0.5963615937645439</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>259450</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>234429</v>
+        <v>231358</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>287699</v>
+        <v>283672</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4223168982515699</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3815886556806077</v>
+        <v>0.3765899408533566</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4682990728911895</v>
+        <v>0.4617434875338348</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>362</v>
@@ -7207,19 +7207,19 @@
         <v>274820</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>254045</v>
+        <v>255272</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>296282</v>
+        <v>297426</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4427214195138141</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4092542299910221</v>
+        <v>0.411230687821725</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4772955394268278</v>
+        <v>0.4791377049813168</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>583</v>
@@ -7228,19 +7228,19 @@
         <v>534270</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>500131</v>
+        <v>498534</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>569774</v>
+        <v>569149</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4325720500199768</v>
+        <v>0.4325720500199767</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4049310073877172</v>
+        <v>0.4036384062354564</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4613176459978905</v>
+        <v>0.4608113557315326</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>392540</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>365293</v>
+        <v>364712</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>417023</v>
+        <v>418800</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5670600044887445</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5276991341354852</v>
+        <v>0.5268585401039904</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6024265583818433</v>
+        <v>0.6049935830235772</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>669</v>
@@ -7353,19 +7353,19 @@
         <v>429232</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>407695</v>
+        <v>408306</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>448942</v>
+        <v>451913</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.589780788714518</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5601876657070757</v>
+        <v>0.561027286181178</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6168624253030371</v>
+        <v>0.6209450456931829</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1049</v>
@@ -7374,19 +7374,19 @@
         <v>821773</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>788074</v>
+        <v>790630</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>856048</v>
+        <v>858124</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5787047566097089</v>
+        <v>0.578704756609709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.554973391437886</v>
+        <v>0.5567736022355799</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6028419301914827</v>
+        <v>0.6043035003002798</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>299698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>275215</v>
+        <v>273438</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>326945</v>
+        <v>327526</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4329399955112556</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3975734416181567</v>
+        <v>0.395006416976423</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4723008658645147</v>
+        <v>0.4731414598960097</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>458</v>
@@ -7424,19 +7424,19 @@
         <v>298551</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>278841</v>
+        <v>275870</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>320088</v>
+        <v>319477</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.410219211285482</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3831375746969632</v>
+        <v>0.3790549543068174</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4398123342929246</v>
+        <v>0.4389727138188219</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>735</v>
@@ -7445,19 +7445,19 @@
         <v>598248</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>563973</v>
+        <v>561897</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>631947</v>
+        <v>629391</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4212952433902911</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3971580698085171</v>
+        <v>0.3956964996997203</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4450266085621137</v>
+        <v>0.4432263977644201</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>375846</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>352435</v>
+        <v>350774</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>398566</v>
+        <v>396849</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6211731952847128</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5824806577270878</v>
+        <v>0.5797357750307209</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6587217338219663</v>
+        <v>0.6558842192051726</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>630</v>
@@ -7570,19 +7570,19 @@
         <v>379377</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>361071</v>
+        <v>359414</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>396914</v>
+        <v>396556</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6327332683829014</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6022019241800873</v>
+        <v>0.5994377432485416</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6619812221715564</v>
+        <v>0.661383622859669</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1046</v>
@@ -7591,19 +7591,19 @@
         <v>755224</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>726472</v>
+        <v>726904</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>783801</v>
+        <v>785864</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6269269666774234</v>
+        <v>0.6269269666774233</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.603059133330234</v>
+        <v>0.6034181563175901</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6506493223968327</v>
+        <v>0.6523617846642012</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>229213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>206493</v>
+        <v>208210</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>252624</v>
+        <v>254285</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3788268047152873</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3412782661780338</v>
+        <v>0.3441157807948274</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4175193422729125</v>
+        <v>0.4202642249692791</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>357</v>
@@ -7641,19 +7641,19 @@
         <v>220208</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>202671</v>
+        <v>203029</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>238514</v>
+        <v>240171</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3672667316170986</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3380187778284435</v>
+        <v>0.3386163771403309</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3977980758199123</v>
+        <v>0.4005622567514581</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>599</v>
@@ -7662,19 +7662,19 @@
         <v>449420</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>420843</v>
+        <v>418780</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>478172</v>
+        <v>477740</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3730730333225767</v>
+        <v>0.3730730333225766</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3493506776031675</v>
+        <v>0.3476382153357988</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3969408666697663</v>
+        <v>0.39658184368241</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>252378</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>236908</v>
+        <v>236762</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>269530</v>
+        <v>269432</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6216761277004753</v>
+        <v>0.6216761277004754</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5835711746275737</v>
+        <v>0.5832116786575368</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6639268158035428</v>
+        <v>0.6636851269490066</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>494</v>
@@ -7787,19 +7787,19 @@
         <v>266024</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>249971</v>
+        <v>252331</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>281898</v>
+        <v>281105</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6104052064691828</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5735695544767235</v>
+        <v>0.5789845054736145</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6468286631321187</v>
+        <v>0.6450095297135106</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>850</v>
@@ -7808,19 +7808,19 @@
         <v>518402</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>496693</v>
+        <v>496163</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>539870</v>
+        <v>541394</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6158408068331278</v>
+        <v>0.6158408068331277</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5900515442149714</v>
+        <v>0.5894221115395707</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6413441117187967</v>
+        <v>0.6431542235858151</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>153585</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>136433</v>
+        <v>136531</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169055</v>
+        <v>169201</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3783238722995247</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3360731841964573</v>
+        <v>0.3363148730509927</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4164288253724264</v>
+        <v>0.4167883213424631</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>327</v>
@@ -7858,19 +7858,19 @@
         <v>169792</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>153918</v>
+        <v>154711</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>185845</v>
+        <v>183485</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3895947935308172</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3531713368678813</v>
+        <v>0.3549904702864896</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4264304455232765</v>
+        <v>0.4210154945263856</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>539</v>
@@ -7879,19 +7879,19 @@
         <v>323377</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>301909</v>
+        <v>300385</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>345086</v>
+        <v>345616</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3841591931668722</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3586558882812033</v>
+        <v>0.3568457764141847</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4099484557850288</v>
+        <v>0.4105778884604292</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>205092</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>191692</v>
+        <v>190798</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>218525</v>
+        <v>218358</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6734736960384641</v>
+        <v>0.6734736960384642</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6294708291575208</v>
+        <v>0.6265332247685741</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7175832360826075</v>
+        <v>0.7170351176229451</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>608</v>
@@ -8004,19 +8004,19 @@
         <v>318874</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>303842</v>
+        <v>303977</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>332900</v>
+        <v>334186</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7039264627006152</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6707407776703934</v>
+        <v>0.6710394714362834</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7348882610160075</v>
+        <v>0.737727591366661</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>918</v>
@@ -8025,19 +8025,19 @@
         <v>523967</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>505250</v>
+        <v>503350</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>544333</v>
+        <v>543571</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6916842695199914</v>
+        <v>0.6916842695199913</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6669771008636285</v>
+        <v>0.6644680322390787</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7185701782827516</v>
+        <v>0.7175640203032239</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>99437</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>86004</v>
+        <v>86171</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>112837</v>
+        <v>113731</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3265263039615357</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2824167639173925</v>
+        <v>0.282964882377055</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3705291708424792</v>
+        <v>0.3734667752314261</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>253</v>
@@ -8075,19 +8075,19 @@
         <v>134120</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>120094</v>
+        <v>118808</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>149152</v>
+        <v>149017</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2960735372993847</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2651117389839928</v>
+        <v>0.262272408633339</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3292592223296067</v>
+        <v>0.3289605285637167</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>393</v>
@@ -8096,19 +8096,19 @@
         <v>233556</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>213190</v>
+        <v>213952</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>252273</v>
+        <v>254173</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3083157304800087</v>
+        <v>0.3083157304800086</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2814298217172484</v>
+        <v>0.2824359796967762</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3330228991363714</v>
+        <v>0.3355319677609219</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1997035</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1930290</v>
+        <v>1921374</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2057387</v>
+        <v>2057390</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5699882276435326</v>
+        <v>0.5699882276435325</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5509378898548398</v>
+        <v>0.5483933131303629</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.587213656398439</v>
+        <v>0.5872145850178613</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3213</v>
@@ -8221,19 +8221,19 @@
         <v>2152162</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2097022</v>
+        <v>2101569</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2205035</v>
+        <v>2206556</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.581891963180407</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5669832489508545</v>
+        <v>0.5682126630211883</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5961874028443134</v>
+        <v>0.5965986044490023</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5235</v>
@@ -8242,19 +8242,19 @@
         <v>4149198</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4064920</v>
+        <v>4066238</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4243235</v>
+        <v>4231942</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.57610117350936</v>
+        <v>0.5761011735093599</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5643995916345295</v>
+        <v>0.5645825786395119</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5891579818358557</v>
+        <v>0.5875899590350148</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>1506608</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1446256</v>
+        <v>1446253</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1573353</v>
+        <v>1582269</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4300117723564674</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4127863436015611</v>
+        <v>0.4127854149821387</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4490621101451602</v>
+        <v>0.4516066868696372</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2092</v>
@@ -8292,19 +8292,19 @@
         <v>1546398</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1493525</v>
+        <v>1492004</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1601538</v>
+        <v>1596991</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4181080368195929</v>
+        <v>0.4181080368195928</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4038125971556865</v>
+        <v>0.4034013955509979</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4330167510491454</v>
+        <v>0.4317873369788116</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3416</v>
@@ -8313,19 +8313,19 @@
         <v>3053005</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2958968</v>
+        <v>2970261</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3137283</v>
+        <v>3135965</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.42389882649064</v>
+        <v>0.4238988264906401</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4108420181641442</v>
+        <v>0.4124100409649852</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4356004083654705</v>
+        <v>0.4354174213604881</v>
       </c>
     </row>
     <row r="27">
